--- a/ML_PL_new/fuzz_teams.xlsx
+++ b/ML_PL_new/fuzz_teams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1649 +436,2134 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Team_fdcouk</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Team_fbref</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Team_odds</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Aston Villa</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Aston Villa</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Brentford</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Brentford</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Brentford</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Brighton</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Brighton</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Chelsea</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Chelsea</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Everton</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Everton</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Everton</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Fulham</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Fulham</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fulham</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Ipswich</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Ipswich Town</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ipswich Town</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Leicester</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Leicester City</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Leicester City</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Man City</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Man United</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Manchester Utd</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Newcastle Utd</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Nott'm Forest</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Nott'ham Forest</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Southampton</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Southampton</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Southampton</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Tottenham</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Tottenham</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>West Ham</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>West Ham</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>ENG</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Wolves</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Wolves</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ENG</t>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wolves</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Alaves</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Alavés</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Alavés</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Ath Bilbao</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Athletic Club</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Ath Madrid</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Atlético Madrid</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Betis</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Betis</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Celta</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Celta Vigo</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Espanol</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Espanyol</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Getafe</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Girona</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Las Palmas</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Las Palmas</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Leganes</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Leganés</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Leganés</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Osasuna</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Osasuna</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Sevilla</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Sevilla</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Sociedad</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Valencia</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Valladolid</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Valladolid</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Vallecano</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Rayo Vallecano</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Villarreal</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Villarreal</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>ESP</t>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Augsburg</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Augsburg</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Bayern Munich</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Bayern Munich</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Bochum</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Bochum</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VfL Bochum</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Ein Frankfurt</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Eint Frankfurt</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Heidenheim</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Heidenheim</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Hoffenheim</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Hoffenheim</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TSG Hoffenheim</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Holstein Kiel</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Holstein Kiel</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Leverkusen</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Leverkusen</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>M'gladbach</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Gladbach</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Borussia Monchengladbach</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Mainz</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Mainz 05</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FSV Mainz 05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>St Pauli</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>St. Pauli</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FC St. Pauli</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Union Berlin</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Union Berlin</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Werder Bremen</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Werder Bremen</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>GER</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>Wolfsburg</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Wolfsburg</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>GER</t>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Atalanta BC</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>Bologna</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Bologna</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Bologna</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>Cagliari</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Cagliari</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Como</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Como</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Como</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Empoli</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Empoli</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Empoli</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>Fiorentina</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Fiorentina</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Genoa</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Genoa</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Genoa</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>Inter</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Inter</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Juventus</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>Lazio</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Lazio</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Lazio</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Lecce</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Lecce</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Lecce</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>Milan</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Milan</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>Monza</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Monza</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Monza</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Napoli</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>Parma</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Parma</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Parma</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AS Roma</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Torino</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>Udinese</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Udinese</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Udinese</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
           <t>Venezia</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Venezia</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Venezia</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>Verona</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Hellas Verona</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ITA</t>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>Angers</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Angers</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Angers</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>Auxerre</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Auxerre</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>Brest</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Brest</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Brest</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>Le Havre</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Le Havre</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>RC Lens</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>Lille</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Lille</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Lille</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>Lyon</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Lyon</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Lyon</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>Marseille</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>Marseille</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Marseille</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>Monaco</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Monaco</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>AS Monaco</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>Montpellier</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Montpellier</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>Nantes</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Nantes</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Nantes</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>Nice</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Nice</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Nice</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>Paris SG</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Paris S-G</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>Reims</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Reims</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Stade de Reims</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Rennes</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>St Etienne</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Saint-Étienne</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Saint Etienne</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>Strasbourg</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>Strasbourg</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>FRA</t>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
         </is>
       </c>
     </row>

--- a/ML_PL_new/fuzz_teams.xlsx
+++ b/ML_PL_new/fuzz_teams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,6 +2567,1150 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>AVS Futebol</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>AVS Futebol SAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Boavista Porto</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CF Estrela</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Gil Vicente FC</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Vitória SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Moreirense FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Sp Braga</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Sp Lisbon</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>For Sittard</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Go Ahead Eag</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sparta R'dam</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>FC Twente Enschede</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>FC Utrecht</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NED</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>FC Zwolle</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Royal Antwerp</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Beerschot VA</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Beerschot</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Beerschot Wilrijk</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Dender</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Dender</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Dender</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>KV Kortrijk</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Oud-Heverlee Leuven</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>St Truiden</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sint-Truiden</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sint Truiden</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>St. Gilloise</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Union Saint-Gilloise</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Standard Liege</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ML_PL_new/fuzz_teams.xlsx
+++ b/ML_PL_new/fuzz_teams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="374">
   <si>
     <t>Country</t>
   </si>
@@ -1508,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:E152"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5152,19 +5152,19 @@
         <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F76">
-        <v>33100</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5172,19 +5172,19 @@
         <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="F77">
-        <v>30121</v>
+        <v>33100</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -5192,39 +5192,39 @@
         <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F78">
-        <v>37121</v>
+        <v>30121</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F79">
-        <v>49100</v>
+        <v>37121</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5232,19 +5232,19 @@
         <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F80">
-        <v>89000</v>
+        <v>49100</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5252,19 +5252,19 @@
         <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F81">
-        <v>29200</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,19 +5272,19 @@
         <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F82">
-        <v>76600</v>
+        <v>29200</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -5292,19 +5292,19 @@
         <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F83">
-        <v>62300</v>
+        <v>76600</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -5312,19 +5312,19 @@
         <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F84">
-        <v>59000</v>
+        <v>62300</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,19 +5332,19 @@
         <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F85">
-        <v>69001</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -5352,19 +5352,19 @@
         <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F86">
-        <v>13001</v>
+        <v>69001</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -5372,19 +5372,19 @@
         <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F87">
-        <v>98000</v>
+        <v>13001</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5392,19 +5392,19 @@
         <v>130</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F88">
-        <v>34000</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5412,19 +5412,19 @@
         <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F89">
-        <v>44000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,19 +5432,19 @@
         <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F90">
-        <v>6000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -5452,19 +5452,19 @@
         <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>302</v>
+        <v>144</v>
       </c>
       <c r="F91">
-        <v>75001</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -5472,19 +5472,19 @@
         <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E92" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="F92">
-        <v>51100</v>
+        <v>75001</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -5492,19 +5492,19 @@
         <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F93">
-        <v>35000</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -5512,19 +5512,19 @@
         <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F94">
-        <v>42000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -5532,19 +5532,19 @@
         <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F95">
-        <v>67000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5552,39 +5552,39 @@
         <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F96">
-        <v>31000</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D97" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E97" t="s">
-        <v>303</v>
-      </c>
-      <c r="F97" t="s">
-        <v>304</v>
+        <v>155</v>
+      </c>
+      <c r="F97">
+        <v>31000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5592,19 +5592,19 @@
         <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>303</v>
       </c>
       <c r="F98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -5612,19 +5612,19 @@
         <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="F99" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -5632,19 +5632,19 @@
         <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E100" t="s">
         <v>306</v>
       </c>
       <c r="F100" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -5652,19 +5652,19 @@
         <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E101" t="s">
         <v>306</v>
       </c>
       <c r="F101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -5672,19 +5672,19 @@
         <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E102" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
       <c r="F102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -5692,19 +5692,19 @@
         <v>156</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D103" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="F103" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -5712,19 +5712,19 @@
         <v>156</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E104" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F104" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -5732,19 +5732,19 @@
         <v>156</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E105" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F105" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -5752,19 +5752,19 @@
         <v>156</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E106" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="F106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -5772,19 +5772,19 @@
         <v>156</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D107" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E107" t="s">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="F107" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -5792,19 +5792,19 @@
         <v>156</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D108" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E108" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F108" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,19 +5812,19 @@
         <v>156</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E109" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F109" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -5832,19 +5832,19 @@
         <v>156</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D110" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E110" t="s">
-        <v>180</v>
+        <v>321</v>
       </c>
       <c r="F110" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -5852,19 +5852,19 @@
         <v>156</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C111" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E111" t="s">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="F111" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -5872,19 +5872,19 @@
         <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C112" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D112" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E112" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -5892,19 +5892,19 @@
         <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E113" t="s">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="F113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -5912,39 +5912,39 @@
         <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D114" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E114" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="F114" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D115" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E115" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="F115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -5952,19 +5952,19 @@
         <v>190</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E116" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F116" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -5972,19 +5972,19 @@
         <v>190</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D117" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E117" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5992,19 +5992,19 @@
         <v>190</v>
       </c>
       <c r="B118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E118" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F118" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -6012,19 +6012,19 @@
         <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E119" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F119" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -6032,19 +6032,19 @@
         <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E120" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F120" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -6052,19 +6052,19 @@
         <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D121" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E121" t="s">
-        <v>199</v>
+        <v>340</v>
       </c>
       <c r="F121" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -6072,19 +6072,19 @@
         <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F122" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -6092,19 +6092,19 @@
         <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C123" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D123" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E123" t="s">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="F123" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -6112,19 +6112,19 @@
         <v>190</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E124" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F124" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -6132,19 +6132,19 @@
         <v>190</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D125" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E125" t="s">
-        <v>204</v>
+        <v>346</v>
       </c>
       <c r="F125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -6152,19 +6152,19 @@
         <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E126" t="s">
-        <v>349</v>
+        <v>204</v>
       </c>
       <c r="F126" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -6172,19 +6172,19 @@
         <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C127" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E127" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F127" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -6192,19 +6192,19 @@
         <v>190</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D128" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E128" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="F128" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -6212,19 +6212,19 @@
         <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D129" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E129" t="s">
-        <v>211</v>
+        <v>352</v>
       </c>
       <c r="F129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,19 +6232,19 @@
         <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C130" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D130" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E130" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F130" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -6252,19 +6252,19 @@
         <v>190</v>
       </c>
       <c r="B131" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E131" t="s">
-        <v>356</v>
+        <v>213</v>
       </c>
       <c r="F131" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -6272,39 +6272,39 @@
         <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C132" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D132" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E132" t="s">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="F132" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C133" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D133" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E133" t="s">
-        <v>359</v>
-      </c>
-      <c r="F133">
-        <v>1600</v>
+        <v>216</v>
+      </c>
+      <c r="F133" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -6312,19 +6312,19 @@
         <v>218</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D134" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E134" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F134">
-        <v>2000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -6332,19 +6332,19 @@
         <v>218</v>
       </c>
       <c r="B135" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C135" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D135" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E135" t="s">
         <v>360</v>
       </c>
       <c r="F135">
-        <v>2018</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -6352,19 +6352,19 @@
         <v>218</v>
       </c>
       <c r="B136" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D136" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E136" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F136">
-        <v>8000</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -6372,19 +6372,19 @@
         <v>218</v>
       </c>
       <c r="B137" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C137" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D137" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E137" t="s">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="F137">
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -6392,19 +6392,19 @@
         <v>218</v>
       </c>
       <c r="B138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E138" t="s">
-        <v>361</v>
+        <v>227</v>
       </c>
       <c r="F138">
-        <v>8200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -6412,19 +6412,19 @@
         <v>218</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D139" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E139" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F139">
-        <v>1790</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -6432,19 +6432,19 @@
         <v>218</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E140" t="s">
-        <v>230</v>
+        <v>362</v>
       </c>
       <c r="F140">
-        <v>3600</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -6452,19 +6452,19 @@
         <v>218</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E141" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F141">
-        <v>9000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -6472,19 +6472,19 @@
         <v>218</v>
       </c>
       <c r="B142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D142" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F142">
-        <v>8500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -6492,19 +6492,19 @@
         <v>218</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C143" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D143" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E143" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F143">
-        <v>2800</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -6512,19 +6512,19 @@
         <v>218</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C144" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D144" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E144" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F144">
-        <v>3000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -6532,19 +6532,19 @@
         <v>218</v>
       </c>
       <c r="B145" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C145" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D145" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E145" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F145">
-        <v>3800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -6552,19 +6552,19 @@
         <v>218</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C146" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D146" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E146" t="s">
-        <v>363</v>
+        <v>240</v>
       </c>
       <c r="F146">
-        <v>1000</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -6572,19 +6572,19 @@
         <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C147" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D147" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E147" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F147">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -6592,33 +6592,39 @@
         <v>218</v>
       </c>
       <c r="B148" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C148" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D148" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E148" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="F148">
-        <v>2260</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="B149" t="s">
-        <v>365</v>
+        <v>248</v>
+      </c>
+      <c r="C149" t="s">
+        <v>248</v>
+      </c>
+      <c r="D149" t="s">
+        <v>248</v>
       </c>
       <c r="E149" t="s">
-        <v>368</v>
-      </c>
-      <c r="F149" t="s">
-        <v>369</v>
+        <v>248</v>
+      </c>
+      <c r="F149">
+        <v>2260</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -6626,13 +6632,13 @@
         <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E150" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F150" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -6640,13 +6646,13 @@
         <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E151" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F151" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6654,12 +6660,26 @@
         <v>4</v>
       </c>
       <c r="B152" t="s">
+        <v>367</v>
+      </c>
+      <c r="E152" t="s">
+        <v>367</v>
+      </c>
+      <c r="F152" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
         <v>372</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E153" t="s">
         <v>372</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>373</v>
       </c>
     </row>

--- a/ML_PL_new/fuzz_teams.xlsx
+++ b/ML_PL_new/fuzz_teams.xlsx
@@ -4333,7 +4333,11 @@
           <t>Rio Ave FC</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr">
         <is>
           <t>Vila do Conde</t>
@@ -4498,7 +4502,11 @@
           <t>Ajax</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>Amsterdam</t>

--- a/ML_PL_new/fuzz_teams.xlsx
+++ b/ML_PL_new/fuzz_teams.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="387">
   <si>
     <t>Country</t>
   </si>
@@ -1171,6 +1171,15 @@
   </si>
   <si>
     <t>AVS SAD</t>
+  </si>
+  <si>
+    <t>Nacional Madeira</t>
+  </si>
+  <si>
+    <t>F. Sittard</t>
+  </si>
+  <si>
+    <t>PSV</t>
   </si>
 </sst>
 </file>
@@ -1537,12 +1546,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1927,6 +1937,9 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
       <c r="F17" t="s">
         <v>54</v>
       </c>
@@ -1947,6 +1960,9 @@
       <c r="D18" t="s">
         <v>56</v>
       </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
       <c r="F18" t="s">
         <v>56</v>
       </c>
@@ -3600,6 +3616,9 @@
       <c r="D90" t="s">
         <v>203</v>
       </c>
+      <c r="E90" t="s">
+        <v>203</v>
+      </c>
       <c r="F90" t="s">
         <v>203</v>
       </c>
@@ -3643,6 +3662,9 @@
       <c r="D92" t="s">
         <v>207</v>
       </c>
+      <c r="E92" t="s">
+        <v>205</v>
+      </c>
       <c r="F92" t="s">
         <v>208</v>
       </c>
@@ -3847,6 +3869,9 @@
       <c r="D101" t="s">
         <v>230</v>
       </c>
+      <c r="E101" t="s">
+        <v>229</v>
+      </c>
       <c r="F101" t="s">
         <v>227</v>
       </c>
@@ -3867,6 +3892,9 @@
       <c r="D102" t="s">
         <v>232</v>
       </c>
+      <c r="E102" t="s">
+        <v>232</v>
+      </c>
       <c r="F102" t="s">
         <v>227</v>
       </c>
@@ -3887,6 +3915,9 @@
       <c r="D103" t="s">
         <v>234</v>
       </c>
+      <c r="E103" t="s">
+        <v>234</v>
+      </c>
       <c r="F103" t="s">
         <v>234</v>
       </c>
@@ -3930,6 +3961,9 @@
       <c r="D105" t="s">
         <v>240</v>
       </c>
+      <c r="E105" t="s">
+        <v>239</v>
+      </c>
       <c r="F105" t="s">
         <v>241</v>
       </c>
@@ -3973,6 +4007,9 @@
       <c r="D107" t="s">
         <v>247</v>
       </c>
+      <c r="E107" t="s">
+        <v>247</v>
+      </c>
       <c r="F107" t="s">
         <v>247</v>
       </c>
@@ -3993,6 +4030,9 @@
       <c r="D108" t="s">
         <v>252</v>
       </c>
+      <c r="E108" t="s">
+        <v>250</v>
+      </c>
       <c r="F108" t="s">
         <v>253</v>
       </c>
@@ -4036,6 +4076,9 @@
       <c r="D110" t="s">
         <v>259</v>
       </c>
+      <c r="E110" t="s">
+        <v>384</v>
+      </c>
       <c r="F110" t="s">
         <v>260</v>
       </c>
@@ -4056,6 +4099,9 @@
       <c r="D111" t="s">
         <v>263</v>
       </c>
+      <c r="E111" t="s">
+        <v>262</v>
+      </c>
       <c r="F111" t="s">
         <v>262</v>
       </c>
@@ -4099,6 +4145,9 @@
       <c r="D113" t="s">
         <v>269</v>
       </c>
+      <c r="E113" t="s">
+        <v>269</v>
+      </c>
       <c r="F113" t="s">
         <v>270</v>
       </c>
@@ -4142,6 +4191,9 @@
       <c r="D115" t="s">
         <v>277</v>
       </c>
+      <c r="E115" t="s">
+        <v>276</v>
+      </c>
       <c r="F115" t="s">
         <v>227</v>
       </c>
@@ -4208,6 +4260,9 @@
       <c r="D118" t="s">
         <v>286</v>
       </c>
+      <c r="E118" t="s">
+        <v>286</v>
+      </c>
       <c r="F118" t="s">
         <v>287</v>
       </c>
@@ -4228,6 +4283,9 @@
       <c r="D119" t="s">
         <v>289</v>
       </c>
+      <c r="E119" t="s">
+        <v>289</v>
+      </c>
       <c r="F119" t="s">
         <v>290</v>
       </c>
@@ -4248,6 +4306,9 @@
       <c r="D120" t="s">
         <v>293</v>
       </c>
+      <c r="E120" t="s">
+        <v>385</v>
+      </c>
       <c r="F120" t="s">
         <v>294</v>
       </c>
@@ -4268,6 +4329,9 @@
       <c r="D121" t="s">
         <v>296</v>
       </c>
+      <c r="E121" t="s">
+        <v>296</v>
+      </c>
       <c r="F121" t="s">
         <v>298</v>
       </c>
@@ -4311,6 +4375,9 @@
       <c r="D123" t="s">
         <v>302</v>
       </c>
+      <c r="E123" t="s">
+        <v>302</v>
+      </c>
       <c r="F123" t="s">
         <v>302</v>
       </c>
@@ -4354,6 +4421,9 @@
       <c r="D125" t="s">
         <v>308</v>
       </c>
+      <c r="E125" t="s">
+        <v>308</v>
+      </c>
       <c r="F125" t="s">
         <v>309</v>
       </c>
@@ -4374,6 +4444,9 @@
       <c r="D126" t="s">
         <v>312</v>
       </c>
+      <c r="E126" t="s">
+        <v>311</v>
+      </c>
       <c r="F126" t="s">
         <v>311</v>
       </c>
@@ -4394,6 +4467,9 @@
       <c r="D127" t="s">
         <v>314</v>
       </c>
+      <c r="E127" t="s">
+        <v>386</v>
+      </c>
       <c r="F127" t="s">
         <v>315</v>
       </c>
@@ -4414,6 +4490,9 @@
       <c r="D128" t="s">
         <v>317</v>
       </c>
+      <c r="E128" t="s">
+        <v>317</v>
+      </c>
       <c r="F128" t="s">
         <v>290</v>
       </c>
@@ -4478,6 +4557,9 @@
         <v>328</v>
       </c>
       <c r="D131" t="s">
+        <v>328</v>
+      </c>
+      <c r="E131" t="s">
         <v>328</v>
       </c>
       <c r="F131" t="s">
